--- a/biology/Botanique/Berberis_vernae/Berberis_vernae.xlsx
+++ b/biology/Botanique/Berberis_vernae/Berberis_vernae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis vernae (synonyme Berberis carolii var. hoanghensis) est une plante arbustive de la famille des Berberidaceae.
 Cette espèce de berbéris est originaire de l'ouest de la Chine, principalement de la province de Gansu, du Qinghai et du Sichuan.
